--- a/Data/StrEn.xlsx
+++ b/Data/StrEn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimgeoyeob/balloon/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1126822F-D02F-7C4F-8F7D-221F3C6BB6DE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02AEDB51-AA1F-1049-8C28-37D6457A516C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22120" yWindow="11240" windowWidth="35920" windowHeight="17120" xr2:uid="{15772E15-9524-4050-A165-54CC203BB2A2}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>id</t>
   </si>
@@ -78,9 +78,6 @@
     <t>다시하기</t>
   </si>
   <si>
-    <t>다음 스테이지로</t>
-  </si>
-  <si>
     <t>[StrEnData]</t>
   </si>
   <si>
@@ -106,6 +103,21 @@
   </si>
   <si>
     <t>NEXT STAGE</t>
+  </si>
+  <si>
+    <t>다음 스테이지</t>
+  </si>
+  <si>
+    <t>스테이지 선택</t>
+  </si>
+  <si>
+    <t>SELECT STAGE</t>
+  </si>
+  <si>
+    <t>스테이지 {0}</t>
+  </si>
+  <si>
+    <t>STAGE {0}</t>
   </si>
 </sst>
 </file>
@@ -1341,10 +1353,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="255.5" defaultRowHeight="14"/>
@@ -1357,7 +1369,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1391,7 +1403,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1399,7 +1411,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1407,7 +1419,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1415,7 +1427,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1423,7 +1435,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1431,7 +1443,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1439,15 +1451,31 @@
         <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Data/StrEn.xlsx
+++ b/Data/StrEn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimgeoyeob/balloon/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02AEDB51-AA1F-1049-8C28-37D6457A516C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{254DA397-7FF8-2D4C-A480-36BAF8C2DE35}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22120" yWindow="11240" windowWidth="35920" windowHeight="17120" xr2:uid="{15772E15-9524-4050-A165-54CC203BB2A2}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>id</t>
   </si>
@@ -118,6 +118,12 @@
   </si>
   <si>
     <t>STAGE {0}</t>
+  </si>
+  <si>
+    <t>시작</t>
+  </si>
+  <si>
+    <t>START</t>
   </si>
 </sst>
 </file>
@@ -1353,10 +1359,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="255.5" defaultRowHeight="14"/>
@@ -1478,6 +1484,14 @@
         <v>28</v>
       </c>
     </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/StrEn.xlsx
+++ b/Data/StrEn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimgeoyeob/balloon/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{254DA397-7FF8-2D4C-A480-36BAF8C2DE35}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E934584B-2BB3-E148-9F9A-6B0FE4E9C8E6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22120" yWindow="11240" windowWidth="35920" windowHeight="17120" xr2:uid="{15772E15-9524-4050-A165-54CC203BB2A2}"/>
   </bookViews>
@@ -81,9 +81,6 @@
     <t>[StrEnData]</t>
   </si>
   <si>
-    <t>HOLD TO THRUST UPWARD</t>
-  </si>
-  <si>
     <t>DRAG TO STEER</t>
   </si>
   <si>
@@ -124,6 +121,12 @@
   </si>
   <si>
     <t>START</t>
+  </si>
+  <si>
+    <t>HOLD TO THRUST UPWARD
+V
+V
+V</t>
   </si>
 </sst>
 </file>
@@ -194,9 +197,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma [0] 2" xfId="2" xr:uid="{75BC3B06-0B59-CC48-AF9E-0A0630656D29}"/>
@@ -1362,7 +1368,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="255.5" defaultRowHeight="14"/>
@@ -1404,12 +1410,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" ht="60">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>16</v>
+      <c r="B3" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1417,7 +1423,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1425,7 +1431,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1433,7 +1439,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1441,7 +1447,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1449,7 +1455,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1457,39 +1463,39 @@
         <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Data/StrEn.xlsx
+++ b/Data/StrEn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimgeoyeob/balloon/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E934584B-2BB3-E148-9F9A-6B0FE4E9C8E6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D0EC20-05BD-874E-96A3-9638A1C51A30}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22120" yWindow="11240" windowWidth="35920" windowHeight="17120" xr2:uid="{15772E15-9524-4050-A165-54CC203BB2A2}"/>
+    <workbookView xWindow="15280" yWindow="11240" windowWidth="35920" windowHeight="17120" xr2:uid="{15772E15-9524-4050-A165-54CC203BB2A2}"/>
   </bookViews>
   <sheets>
     <sheet name="StrKo" sheetId="4" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>id</t>
   </si>
@@ -127,6 +127,12 @@
 V
 V
 V</t>
+  </si>
+  <si>
+    <t>스와이프로 피버 시작</t>
+  </si>
+  <si>
+    <t>SWIPE TO START FEVER</t>
   </si>
 </sst>
 </file>
@@ -1365,10 +1371,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="255.5" defaultRowHeight="14"/>
@@ -1498,6 +1504,14 @@
         <v>29</v>
       </c>
     </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/StrEn.xlsx
+++ b/Data/StrEn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimgeoyeob/balloon/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D0EC20-05BD-874E-96A3-9638A1C51A30}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D9BD049-A9B5-C140-9D6F-A29286FBE426}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15280" yWindow="11240" windowWidth="35920" windowHeight="17120" xr2:uid="{15772E15-9524-4050-A165-54CC203BB2A2}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>id</t>
   </si>
@@ -133,6 +133,12 @@
   </si>
   <si>
     <t>SWIPE TO START FEVER</t>
+  </si>
+  <si>
+    <t>터치하면 시작</t>
+  </si>
+  <si>
+    <t>TOUCH TO START</t>
   </si>
 </sst>
 </file>
@@ -1371,10 +1377,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="255.5" defaultRowHeight="14"/>
@@ -1512,6 +1518,14 @@
         <v>32</v>
       </c>
     </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/StrEn.xlsx
+++ b/Data/StrEn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimgeoyeob/balloon/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D9BD049-A9B5-C140-9D6F-A29286FBE426}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A1A94F-28EF-2648-9381-7F0D9EDA2887}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15280" yWindow="11240" windowWidth="35920" windowHeight="17120" xr2:uid="{15772E15-9524-4050-A165-54CC203BB2A2}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>id</t>
   </si>
@@ -139,6 +139,13 @@
   </si>
   <si>
     <t>TOUCH TO START</t>
+  </si>
+  <si>
+    <t>광고 보고 다시하기\n(구현 예정)</t>
+  </si>
+  <si>
+    <t>RETRY AFTER WATCHING AD
+(WORKING IN PROGRESS)</t>
   </si>
 </sst>
 </file>
@@ -1377,10 +1384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="255.5" defaultRowHeight="14"/>
@@ -1526,6 +1533,14 @@
         <v>34</v>
       </c>
     </row>
+    <row r="16" spans="1:8" ht="30">
+      <c r="A16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/StrEn.xlsx
+++ b/Data/StrEn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimgeoyeob/balloon/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A1A94F-28EF-2648-9381-7F0D9EDA2887}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A03BEF53-2B7A-4E46-AE34-6C1682B9EDC6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15280" yWindow="11240" windowWidth="35920" windowHeight="17120" xr2:uid="{15772E15-9524-4050-A165-54CC203BB2A2}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>id</t>
   </si>
@@ -146,6 +146,19 @@
   <si>
     <t>RETRY AFTER WATCHING AD
 (WORKING IN PROGRESS)</t>
+  </si>
+  <si>
+    <t>축하합니다!\n모든 스테이지를 클리어했습니다.</t>
+  </si>
+  <si>
+    <t>스테이지 1로 돌아가기</t>
+  </si>
+  <si>
+    <t>CONGRATULATIONS!
+YOU CLEARED OUT ALL STAGES.</t>
+  </si>
+  <si>
+    <t>RETURN TO STAGE 1</t>
   </si>
 </sst>
 </file>
@@ -1384,10 +1397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="255.5" defaultRowHeight="14"/>
@@ -1541,6 +1554,22 @@
         <v>36</v>
       </c>
     </row>
+    <row r="17" spans="1:2" ht="30">
+      <c r="A17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/StrEn.xlsx
+++ b/Data/StrEn.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimgeoyeob/balloon/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/merk-mac/ub/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A03BEF53-2B7A-4E46-AE34-6C1682B9EDC6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFDA5DE0-90A8-544B-8D02-19CC2CC846D9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15280" yWindow="11240" windowWidth="35920" windowHeight="17120" xr2:uid="{15772E15-9524-4050-A165-54CC203BB2A2}"/>
+    <workbookView xWindow="0" yWindow="3880" windowWidth="33600" windowHeight="17120" xr2:uid="{15772E15-9524-4050-A165-54CC203BB2A2}"/>
   </bookViews>
   <sheets>
     <sheet name="StrKo" sheetId="4" r:id="rId1"/>
@@ -141,13 +141,6 @@
     <t>TOUCH TO START</t>
   </si>
   <si>
-    <t>광고 보고 다시하기\n(구현 예정)</t>
-  </si>
-  <si>
-    <t>RETRY AFTER WATCHING AD
-(WORKING IN PROGRESS)</t>
-  </si>
-  <si>
     <t>축하합니다!\n모든 스테이지를 클리어했습니다.</t>
   </si>
   <si>
@@ -159,6 +152,13 @@
   </si>
   <si>
     <t>RETURN TO STAGE 1</t>
+  </si>
+  <si>
+    <t>광고 보고 이어하기\n(구현 예정)</t>
+  </si>
+  <si>
+    <t>CONTINUE AFTER WATCHING AD
+(WORKING IN PROGRESS)</t>
   </si>
 </sst>
 </file>
@@ -1400,7 +1400,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="255.5" defaultRowHeight="14"/>
@@ -1548,26 +1548,26 @@
     </row>
     <row r="16" spans="1:8" ht="30">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="30">
       <c r="A17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Data/StrEn.xlsx
+++ b/Data/StrEn.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10309"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/merk-mac/ub/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimgeoyeob/balloon/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFDA5DE0-90A8-544B-8D02-19CC2CC846D9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7566BAE2-B849-F740-8BEC-439CE1D70160}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3880" windowWidth="33600" windowHeight="17120" xr2:uid="{15772E15-9524-4050-A165-54CC203BB2A2}"/>
+    <workbookView xWindow="19340" yWindow="4900" windowWidth="33600" windowHeight="17120" xr2:uid="{15772E15-9524-4050-A165-54CC203BB2A2}"/>
   </bookViews>
   <sheets>
     <sheet name="StrKo" sheetId="4" r:id="rId1"/>
@@ -154,11 +154,11 @@
     <t>RETURN TO STAGE 1</t>
   </si>
   <si>
-    <t>광고 보고 이어하기\n(구현 예정)</t>
-  </si>
-  <si>
     <t>CONTINUE AFTER WATCHING AD
 (WORKING IN PROGRESS)</t>
+  </si>
+  <si>
+    <t>광고 보고 다시하기\n(구현 예정)</t>
   </si>
 </sst>
 </file>
@@ -1400,7 +1400,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="255.5" defaultRowHeight="14"/>
@@ -1548,10 +1548,10 @@
     </row>
     <row r="16" spans="1:8" ht="30">
       <c r="A16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="30">

--- a/Data/StrEn.xlsx
+++ b/Data/StrEn.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimgeoyeob/balloon/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7566BAE2-B849-F740-8BEC-439CE1D70160}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA5783BA-AA40-DB49-80FD-68A07902EE55}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19340" yWindow="4900" windowWidth="33600" windowHeight="17120" xr2:uid="{15772E15-9524-4050-A165-54CC203BB2A2}"/>
+    <workbookView xWindow="13400" yWindow="5440" windowWidth="33600" windowHeight="17120" xr2:uid="{15772E15-9524-4050-A165-54CC203BB2A2}"/>
   </bookViews>
   <sheets>
     <sheet name="StrKo" sheetId="4" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>id</t>
   </si>
@@ -159,6 +159,18 @@
   </si>
   <si>
     <t>광고 보고 다시하기\n(구현 예정)</t>
+  </si>
+  <si>
+    <t>인터넷 연결이 필요합니다.</t>
+  </si>
+  <si>
+    <t>광고가 아직 준비되지 않았습니다.</t>
+  </si>
+  <si>
+    <t>INTERNET CONNECTION REQUIRED</t>
+  </si>
+  <si>
+    <t>ADS NOT READY</t>
   </si>
 </sst>
 </file>
@@ -1397,10 +1409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="255.5" defaultRowHeight="14"/>
@@ -1570,6 +1582,22 @@
         <v>38</v>
       </c>
     </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/StrEn.xlsx
+++ b/Data/StrEn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimgeoyeob/balloon/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA5783BA-AA40-DB49-80FD-68A07902EE55}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{078C4636-2D55-834F-9F38-DC5DCFDD0980}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13400" yWindow="5440" windowWidth="33600" windowHeight="17120" xr2:uid="{15772E15-9524-4050-A165-54CC203BB2A2}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>id</t>
   </si>
@@ -171,6 +171,12 @@
   </si>
   <si>
     <t>ADS NOT READY</t>
+  </si>
+  <si>
+    <t>확인</t>
+  </si>
+  <si>
+    <t>CONFIRM</t>
   </si>
 </sst>
 </file>
@@ -1409,10 +1415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="255.5" defaultRowHeight="14"/>
@@ -1598,6 +1604,14 @@
         <v>44</v>
       </c>
     </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/StrEn.xlsx
+++ b/Data/StrEn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimgeoyeob/balloon/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{078C4636-2D55-834F-9F38-DC5DCFDD0980}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0022C897-AF58-844B-8C9B-410C9961F054}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13400" yWindow="5440" windowWidth="33600" windowHeight="17120" xr2:uid="{15772E15-9524-4050-A165-54CC203BB2A2}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -177,6 +177,18 @@
   </si>
   <si>
     <t>CONFIRM</t>
+  </si>
+  <si>
+    <t>구입을 실패했습니다.</t>
+  </si>
+  <si>
+    <t>PURCHASE FAILED</t>
+  </si>
+  <si>
+    <t>잠시만 기다려 주십시오.</t>
+  </si>
+  <si>
+    <t>PLEASE WAIT</t>
   </si>
 </sst>
 </file>
@@ -1415,10 +1427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="255.5" defaultRowHeight="14"/>
@@ -1612,6 +1624,22 @@
         <v>46</v>
       </c>
     </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/StrEn.xlsx
+++ b/Data/StrEn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimgeoyeob/balloon/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0022C897-AF58-844B-8C9B-410C9961F054}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{963328D6-625C-414C-A16B-B358A47386B6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13400" yWindow="5440" windowWidth="33600" windowHeight="17120" xr2:uid="{15772E15-9524-4050-A165-54CC203BB2A2}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>id</t>
   </si>
@@ -189,6 +189,42 @@
   </si>
   <si>
     <t>PLEASE WAIT</t>
+  </si>
+  <si>
+    <t>설정</t>
+  </si>
+  <si>
+    <t>소리</t>
+  </si>
+  <si>
+    <t>켜짐</t>
+  </si>
+  <si>
+    <t>꺼짐</t>
+  </si>
+  <si>
+    <t>구매 내역 복원</t>
+  </si>
+  <si>
+    <t>CONFIG</t>
+  </si>
+  <si>
+    <t>AUDIO</t>
+  </si>
+  <si>
+    <t>ON</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>RESTORE PURCHASE</t>
+  </si>
+  <si>
+    <t>광고 제거</t>
+  </si>
+  <si>
+    <t>NO ADS</t>
   </si>
 </sst>
 </file>
@@ -1427,10 +1463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="255.5" defaultRowHeight="14"/>
@@ -1640,6 +1676,54 @@
         <v>50</v>
       </c>
     </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/StrEn.xlsx
+++ b/Data/StrEn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimgeoyeob/balloon/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{963328D6-625C-414C-A16B-B358A47386B6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B74DB87-3A0E-6848-89D1-38CFC39F190C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13400" yWindow="5440" windowWidth="33600" windowHeight="17120" xr2:uid="{15772E15-9524-4050-A165-54CC203BB2A2}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>id</t>
   </si>
@@ -225,6 +225,12 @@
   </si>
   <si>
     <t>NO ADS</t>
+  </si>
+  <si>
+    <t>반발 블록과 충돌하여 피버 게이지를 채우세요.</t>
+  </si>
+  <si>
+    <t>HIT REPULSIVE BLOCKS TO GAIN FEVER</t>
   </si>
 </sst>
 </file>
@@ -1463,10 +1469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="255.5" defaultRowHeight="14"/>
@@ -1724,6 +1730,14 @@
         <v>62</v>
       </c>
     </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/StrEn.xlsx
+++ b/Data/StrEn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimgeoyeob/balloon/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B74DB87-3A0E-6848-89D1-38CFC39F190C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D1EBE5C-9D22-294D-A834-03A9B571CBDE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13400" yWindow="5440" windowWidth="33600" windowHeight="17120" xr2:uid="{15772E15-9524-4050-A165-54CC203BB2A2}"/>
+    <workbookView xWindow="20560" yWindow="7560" windowWidth="29080" windowHeight="17120" xr2:uid="{15772E15-9524-4050-A165-54CC203BB2A2}"/>
   </bookViews>
   <sheets>
     <sheet name="StrKo" sheetId="4" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>id</t>
   </si>
@@ -231,6 +231,30 @@
   </si>
   <si>
     <t>HIT REPULSIVE BLOCKS TO GAIN FEVER</t>
+  </si>
+  <si>
+    <t>마지막 체크포인트부터 시작</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>처음부터 시작</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONTINUE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RESTART</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>재도전</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAILED</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -238,7 +262,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -299,7 +323,7 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -310,8 +334,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma [0] 2" xfId="2" xr:uid="{75BC3B06-0B59-CC48-AF9E-0A0630656D29}"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{F430C1ED-A8CF-5449-A4C5-2300CC48B592}"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
@@ -1469,10 +1493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="255.5" defaultRowHeight="14"/>
@@ -1738,6 +1762,30 @@
         <v>64</v>
       </c>
     </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/StrEn.xlsx
+++ b/Data/StrEn.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimgeoyeob/balloon/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimgeoyeob/balloon-ios/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D1EBE5C-9D22-294D-A834-03A9B571CBDE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A030E5E-9991-9642-BEE9-35A39E883B08}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20560" yWindow="7560" windowWidth="29080" windowHeight="17120" xr2:uid="{15772E15-9524-4050-A165-54CC203BB2A2}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t>id</t>
   </si>
@@ -254,6 +254,22 @@
   </si>
   <si>
     <t>FAILED</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매 복원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>다시 시도 해 주십시오.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RESTORE PURCHASE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRY AGAIN</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1493,10 +1509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="255.5" defaultRowHeight="14"/>
@@ -1786,6 +1802,22 @@
         <v>70</v>
       </c>
     </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
